--- a/aranya-attribute.xlsx
+++ b/aranya-attribute.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\server-74\htdocs\newaranya\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="800" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="800" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="vendor" sheetId="2" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <sheet name="consignment" sheetId="16" r:id="rId15"/>
     <sheet name="Artist" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="399">
   <si>
     <t>id</t>
   </si>
@@ -1213,13 +1213,31 @@
   </si>
   <si>
     <t>No data found</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>#030303</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1232,6 +1250,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF515365"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1307,7 +1331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1343,6 +1367,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1660,7 +1688,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1711,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1725,7 +1753,7 @@
     <col min="4" max="16384" width="10.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1746,8 +1774,11 @@
       <c r="C2" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1757,8 +1788,11 @@
       <c r="C3" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1768,8 +1802,11 @@
       <c r="C4" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -1779,8 +1816,11 @@
       <c r="C5" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -1790,8 +1830,11 @@
       <c r="C6" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1801,8 +1844,11 @@
       <c r="C7" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -1812,8 +1858,11 @@
       <c r="C8" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -1823,8 +1872,11 @@
       <c r="C9" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1834,8 +1886,11 @@
       <c r="C10" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -1845,8 +1900,11 @@
       <c r="C11" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -1856,8 +1914,11 @@
       <c r="C12" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -1867,8 +1928,11 @@
       <c r="C13" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -1878,8 +1942,11 @@
       <c r="C14" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -1889,8 +1956,11 @@
       <c r="C15" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -1900,8 +1970,11 @@
       <c r="C16" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -1911,8 +1984,11 @@
       <c r="C17" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1922,8 +1998,11 @@
       <c r="C18" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -1933,8 +2012,11 @@
       <c r="C19" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>60</v>
       </c>
@@ -1943,6 +2025,9 @@
       </c>
       <c r="C20" s="1" t="s">
         <v>227</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1952,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2191,6 +2276,20 @@
         <v>258</v>
       </c>
     </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2200,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2893,10 +2992,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2905,10 +3004,11 @@
     <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.28515625" style="1"/>
+    <col min="5" max="5" width="10.28515625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2921,8 +3021,11 @@
       <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2935,8 +3038,11 @@
       <c r="D2" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2949,8 +3055,11 @@
       <c r="D3" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -2963,8 +3072,11 @@
       <c r="D4" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -2977,8 +3089,11 @@
       <c r="D5" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2991,8 +3106,11 @@
       <c r="D6" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -3005,8 +3123,11 @@
       <c r="D7" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -3019,8 +3140,11 @@
       <c r="D8" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -3033,8 +3157,11 @@
       <c r="D9" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -3047,8 +3174,11 @@
       <c r="D10" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -3061,8 +3191,11 @@
       <c r="D11" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -3075,8 +3208,11 @@
       <c r="D12" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -3089,8 +3225,11 @@
       <c r="D13" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
@@ -3103,8 +3242,11 @@
       <c r="D14" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
@@ -3117,8 +3259,11 @@
       <c r="D15" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -3131,8 +3276,11 @@
       <c r="D16" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
@@ -3144,6 +3292,26 @@
       </c>
       <c r="D17" s="1" t="s">
         <v>386</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18" s="5">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3294,10 +3462,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3305,10 +3473,11 @@
     <col min="1" max="1" width="11.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.28515625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3318,8 +3487,11 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3501,11 @@
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -3340,8 +3515,11 @@
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -3351,8 +3529,11 @@
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -3362,8 +3543,11 @@
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -3373,8 +3557,11 @@
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -3384,8 +3571,11 @@
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -3395,8 +3585,11 @@
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -3406,8 +3599,11 @@
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -3417,8 +3613,11 @@
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -3428,8 +3627,11 @@
       <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -3439,8 +3641,11 @@
       <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -3450,8 +3655,11 @@
       <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -3461,8 +3669,11 @@
       <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -3472,8 +3683,11 @@
       <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -3483,8 +3697,11 @@
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -3505,8 +3725,11 @@
       <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -3516,8 +3739,11 @@
       <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>60</v>
       </c>
@@ -3527,8 +3753,11 @@
       <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
@@ -3538,8 +3767,11 @@
       <c r="C21" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -3549,8 +3781,11 @@
       <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -3560,8 +3795,11 @@
       <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -3571,18 +3809,36 @@
       <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D24" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D25" s="5">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3590,10 +3846,11 @@
     <col min="1" max="1" width="10.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.28515625" style="1"/>
+    <col min="4" max="4" width="10.28515625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3603,8 +3860,11 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -3614,8 +3874,11 @@
       <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -3625,8 +3888,11 @@
       <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -3636,8 +3902,11 @@
       <c r="C4" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -3647,8 +3916,11 @@
       <c r="C5" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -3658,8 +3930,11 @@
       <c r="C6" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -3669,8 +3944,11 @@
       <c r="C7" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -3680,8 +3958,11 @@
       <c r="C8" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -3691,8 +3972,11 @@
       <c r="C9" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -3702,8 +3986,11 @@
       <c r="C10" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -3713,8 +4000,11 @@
       <c r="C11" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -3724,8 +4014,11 @@
       <c r="C12" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -3735,8 +4028,11 @@
       <c r="C13" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -3745,6 +4041,9 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3756,8 +4055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3808,10 +4107,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3819,10 +4118,11 @@
     <col min="1" max="1" width="10.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.28515625" style="1"/>
+    <col min="4" max="4" width="10.28515625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3832,8 +4132,11 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -3843,8 +4146,11 @@
       <c r="C2" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -3854,8 +4160,11 @@
       <c r="C3" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -3865,8 +4174,11 @@
       <c r="C4" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -3876,8 +4188,11 @@
       <c r="C5" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -3887,8 +4202,11 @@
       <c r="C6" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -3898,8 +4216,11 @@
       <c r="C7" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -3909,8 +4230,11 @@
       <c r="C8" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -3920,8 +4244,11 @@
       <c r="C9" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -3931,8 +4258,11 @@
       <c r="C10" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -3942,8 +4272,11 @@
       <c r="C11" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -3953,8 +4286,11 @@
       <c r="C12" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -3964,8 +4300,11 @@
       <c r="C13" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -3974,6 +4313,9 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>124</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4031,10 +4373,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4043,10 +4385,11 @@
     <col min="2" max="2" width="37.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.28515625" style="1"/>
+    <col min="5" max="5" width="10.28515625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4059,8 +4402,11 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -4073,8 +4419,11 @@
       <c r="D2" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -4087,8 +4436,11 @@
       <c r="D3" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -4101,8 +4453,11 @@
       <c r="D4" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -4115,8 +4470,11 @@
       <c r="D5" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -4129,8 +4487,11 @@
       <c r="D6" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -4143,8 +4504,11 @@
       <c r="D7" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -4157,8 +4521,11 @@
       <c r="D8" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -4171,8 +4538,11 @@
       <c r="D9" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -4185,8 +4555,11 @@
       <c r="D10" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -4199,8 +4572,11 @@
       <c r="D11" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -4213,8 +4589,11 @@
       <c r="D12" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -4227,8 +4606,11 @@
       <c r="D13" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -4241,8 +4623,11 @@
       <c r="D14" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -4255,8 +4640,11 @@
       <c r="D15" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -4269,8 +4657,11 @@
       <c r="D16" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -4283,8 +4674,11 @@
       <c r="D17" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -4297,8 +4691,11 @@
       <c r="D18" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -4311,8 +4708,11 @@
       <c r="D19" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>60</v>
       </c>
@@ -4325,8 +4725,11 @@
       <c r="D20" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
@@ -4339,8 +4742,11 @@
       <c r="D21" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -4353,8 +4759,11 @@
       <c r="D22" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -4367,8 +4776,11 @@
       <c r="D23" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -4381,8 +4793,11 @@
       <c r="D24" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>174</v>
       </c>
@@ -4395,8 +4810,11 @@
       <c r="D25" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>177</v>
       </c>
@@ -4409,8 +4827,11 @@
       <c r="D26" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>180</v>
       </c>
@@ -4423,8 +4844,11 @@
       <c r="D27" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>183</v>
       </c>
@@ -4437,8 +4861,11 @@
       <c r="D28" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>186</v>
       </c>
@@ -4450,6 +4877,9 @@
       </c>
       <c r="D29" s="1" t="s">
         <v>188</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/aranya-attribute.xlsx
+++ b/aranya-attribute.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="800" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="vendor" sheetId="2" r:id="rId1"/>
@@ -2040,7 +2040,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2994,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3464,8 +3464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3838,7 +3838,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4376,7 +4376,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
